--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>670.051254822351</v>
+        <v>0.2159152543466666</v>
       </c>
       <c r="R2">
-        <v>6030.461293401159</v>
+        <v>1.94323728912</v>
       </c>
       <c r="S2">
-        <v>0.1662218579815287</v>
+        <v>0.002446290812938869</v>
       </c>
       <c r="T2">
-        <v>0.1662218579815287</v>
+        <v>0.002446290812938869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>1427.832459597085</v>
+        <v>2.533498961848889</v>
       </c>
       <c r="R3">
-        <v>12850.49213637376</v>
+        <v>22.80149065664</v>
       </c>
       <c r="S3">
-        <v>0.354207178350092</v>
+        <v>0.02870420273784969</v>
       </c>
       <c r="T3">
-        <v>0.354207178350092</v>
+        <v>0.02870420273784969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>1767.027637717173</v>
+        <v>2.712679099721111</v>
       </c>
       <c r="R4">
-        <v>15903.24873945456</v>
+        <v>24.41411189749</v>
       </c>
       <c r="S4">
-        <v>0.4383524617440394</v>
+        <v>0.0307342896182985</v>
       </c>
       <c r="T4">
-        <v>0.4383524617440394</v>
+        <v>0.0307342896182985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>8.232171136060664</v>
+        <v>1.495017277472</v>
       </c>
       <c r="R5">
-        <v>74.089540224546</v>
+        <v>13.455155497248</v>
       </c>
       <c r="S5">
-        <v>0.00204218225338703</v>
+        <v>0.01693834482482963</v>
       </c>
       <c r="T5">
-        <v>0.00204218225338703</v>
+        <v>0.01693834482482963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>17.54218214865067</v>
@@ -818,10 +818,10 @@
         <v>157.879639337856</v>
       </c>
       <c r="S6">
-        <v>0.004351747853337284</v>
+        <v>0.1987505660912877</v>
       </c>
       <c r="T6">
-        <v>0.004351747853337284</v>
+        <v>0.1987505660912877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>21.709494327704</v>
+        <v>18.78284206732733</v>
       </c>
       <c r="R7">
-        <v>195.385448949336</v>
+        <v>169.045578605946</v>
       </c>
       <c r="S7">
-        <v>0.005385546936923735</v>
+        <v>0.212807076226358</v>
       </c>
       <c r="T7">
-        <v>0.005385546936923735</v>
+        <v>0.212807076226358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H8">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>20.57367147952355</v>
+        <v>1.778055282144</v>
       </c>
       <c r="R8">
-        <v>185.163043315712</v>
+        <v>16.002497539296</v>
       </c>
       <c r="S8">
-        <v>0.005103779560467613</v>
+        <v>0.02014512737771947</v>
       </c>
       <c r="T8">
-        <v>0.005103779560467614</v>
+        <v>0.02014512737771947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H9">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>43.84105803867023</v>
+        <v>20.863283722368</v>
       </c>
       <c r="R9">
-        <v>394.5695223480321</v>
+        <v>187.769553501312</v>
       </c>
       <c r="S9">
-        <v>0.01087579803875731</v>
+        <v>0.2363782005685502</v>
       </c>
       <c r="T9">
-        <v>0.01087579803875731</v>
+        <v>0.2363782005685502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H10">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>54.25591826295467</v>
+        <v>22.338826483638</v>
       </c>
       <c r="R10">
-        <v>488.303264366592</v>
+        <v>201.049438352742</v>
       </c>
       <c r="S10">
-        <v>0.01345944728146706</v>
+        <v>0.253095901742168</v>
       </c>
       <c r="T10">
-        <v>0.01345944728146706</v>
+        <v>0.253095901742168</v>
       </c>
     </row>
   </sheetData>
